--- a/resources/G3EI3/Students.xlsx
+++ b/resources/G3EI3/Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BCCCFC-0831-4047-9879-25BB93CACD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9FFC73-C866-4862-9870-38E5C0CE2C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DBCF7BAB-69DE-4DAE-88A4-D749CC919D45}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DBCF7BAB-69DE-4DAE-88A4-D749CC919D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>G3EI3_FN1</t>
   </si>
@@ -115,6 +113,27 @@
   </si>
   <si>
     <t>19/2/1999</t>
+  </si>
+  <si>
+    <t>CNE</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>ClasseName</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -501,259 +520,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC39CDD1-A4AC-4028-BE88-0775C18F0A6D}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>19000060</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>17000041</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D2" s="3">
         <v>36161</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
         <v>676546387</v>
       </c>
-      <c r="G1" s="2" t="str">
-        <f t="shared" ref="G1:G10" si="0">CONCATENATE(B1,".",C1,"@etu.uae.ac.ma")</f>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ref="G2:G11" si="0">CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN1.G3EI3_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f>A1+1</f>
-        <v>19000061</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>17000042</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="3">
         <v>36437</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
         <v>683096139</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G3EI3_FN2.G3EI3_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A10" si="1">A2+1</f>
-        <v>19000062</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A11" si="1">A3+1</f>
+        <v>17000043</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>36497</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
         <v>711433500</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G3EI3_FN3.G3EI3_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <f t="shared" si="1"/>
-        <v>19000063</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>17000044</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>36506</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
         <v>778099773</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G3EI3_FN4.G3EI3_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <f t="shared" si="1"/>
-        <v>19000064</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>17000045</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
         <v>678234006</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G3EI3_FN5.G3EI3_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <f t="shared" si="1"/>
-        <v>19000065</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>17000046</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
         <v>621986365</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G3EI3_FN6.G3EI3_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>19000066</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>17000047</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
         <v>609182000</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G3EI3_FN7.G3EI3_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>19000067</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>17000048</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
         <v>733712112</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G3EI3_FN8.G3EI3_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>19000068</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>17000049</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
         <v>649919812</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G3EI3_FN9.G3EI3_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>19000069</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>17000050</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
         <v>641131434</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G3EI3_FN10.G3EI3_LN10@etu.uae.ac.ma</v>
       </c>

--- a/resources/G3EI3/Students.xlsx
+++ b/resources/G3EI3/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9FFC73-C866-4862-9870-38E5C0CE2C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA38C978-0DED-40C5-A531-66ED9A70AA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DBCF7BAB-69DE-4DAE-88A4-D749CC919D45}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,10 +533,10 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>30</v>
@@ -556,10 +556,10 @@
         <v>17000041</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>36161</v>
@@ -571,7 +571,7 @@
         <v>676546387</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G11" si="0">CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN1.G3EI3_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -581,10 +581,10 @@
         <v>17000042</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>36437</v>
@@ -596,20 +596,20 @@
         <v>683096139</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN2.G3EI3_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="1">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>17000043</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>36497</v>
@@ -621,20 +621,20 @@
         <v>711433500</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN3.G3EI3_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000044</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>36506</v>
@@ -646,20 +646,20 @@
         <v>778099773</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN4.G3EI3_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000045</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
@@ -671,20 +671,20 @@
         <v>678234006</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN5.G3EI3_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000046</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
@@ -696,20 +696,20 @@
         <v>621986365</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN6.G3EI3_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000047</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -721,20 +721,20 @@
         <v>609182000</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN7.G3EI3_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000048</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
@@ -746,20 +746,20 @@
         <v>733712112</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN8.G3EI3_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000049</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -771,20 +771,20 @@
         <v>649919812</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN9.G3EI3_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000050</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
@@ -796,7 +796,7 @@
         <v>641131434</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
         <v>G3EI3_FN10.G3EI3_LN10@etu.uae.ac.ma</v>
       </c>
     </row>

--- a/resources/G3EI3/Students.xlsx
+++ b/resources/G3EI3/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA38C978-0DED-40C5-A531-66ED9A70AA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98747A33-4872-4A92-99C7-8C09E78AE545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DBCF7BAB-69DE-4DAE-88A4-D749CC919D45}"/>
   </bookViews>
@@ -32,89 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
-  <si>
-    <t>G3EI3_FN1</t>
-  </si>
-  <si>
-    <t>G3EI3_FN2</t>
-  </si>
-  <si>
-    <t>G3EI3_FN3</t>
-  </si>
-  <si>
-    <t>G3EI3_FN4</t>
-  </si>
-  <si>
-    <t>G3EI3_FN5</t>
-  </si>
-  <si>
-    <t>G3EI3_FN6</t>
-  </si>
-  <si>
-    <t>G3EI3_FN7</t>
-  </si>
-  <si>
-    <t>G3EI3_FN8</t>
-  </si>
-  <si>
-    <t>G3EI3_FN9</t>
-  </si>
-  <si>
-    <t>G3EI3_FN10</t>
-  </si>
-  <si>
-    <t>G3EI3_LN1</t>
-  </si>
-  <si>
-    <t>G3EI3_LN2</t>
-  </si>
-  <si>
-    <t>G3EI3_LN3</t>
-  </si>
-  <si>
-    <t>G3EI3_LN4</t>
-  </si>
-  <si>
-    <t>G3EI3_LN5</t>
-  </si>
-  <si>
-    <t>G3EI3_LN6</t>
-  </si>
-  <si>
-    <t>G3EI3_LN7</t>
-  </si>
-  <si>
-    <t>G3EI3_LN8</t>
-  </si>
-  <si>
-    <t>G3EI3_LN9</t>
-  </si>
-  <si>
-    <t>G3EI3_LN10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>G3EI3</t>
   </si>
   <si>
-    <t>16/5/1999</t>
-  </si>
-  <si>
-    <t>17/10/1999</t>
-  </si>
-  <si>
-    <t>13/6/1999</t>
-  </si>
-  <si>
-    <t>23/9/1999</t>
-  </si>
-  <si>
-    <t>19/11/1999</t>
-  </si>
-  <si>
-    <t>19/2/1999</t>
-  </si>
-  <si>
     <t>CNE</t>
   </si>
   <si>
@@ -134,13 +56,466 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Zephania Sampson</t>
+  </si>
+  <si>
+    <t>Sydnee Vaughan</t>
+  </si>
+  <si>
+    <t>Zeph Sanford</t>
+  </si>
+  <si>
+    <t>Arsenio Stein</t>
+  </si>
+  <si>
+    <t>Leo Jenkins</t>
+  </si>
+  <si>
+    <t>Jamal Trujillo</t>
+  </si>
+  <si>
+    <t>Nadine Moreno</t>
+  </si>
+  <si>
+    <t>Jason Day</t>
+  </si>
+  <si>
+    <t>Camilla Medina</t>
+  </si>
+  <si>
+    <t>Mohammad Allen</t>
+  </si>
+  <si>
+    <t>Jeanette Bauer</t>
+  </si>
+  <si>
+    <t>Adara Hoffman</t>
+  </si>
+  <si>
+    <t>Sylvester Vaughn</t>
+  </si>
+  <si>
+    <t>Marshall Petersen</t>
+  </si>
+  <si>
+    <t>Indira Branch</t>
+  </si>
+  <si>
+    <t>Zoe Sanford</t>
+  </si>
+  <si>
+    <t>Regan Norman</t>
+  </si>
+  <si>
+    <t>Fleur Powers</t>
+  </si>
+  <si>
+    <t>Steven Bush</t>
+  </si>
+  <si>
+    <t>Cally Wheeler</t>
+  </si>
+  <si>
+    <t>Barclay Thompson</t>
+  </si>
+  <si>
+    <t>Leandra Jarvis</t>
+  </si>
+  <si>
+    <t>Colin Wilkinson</t>
+  </si>
+  <si>
+    <t>Paul Austin</t>
+  </si>
+  <si>
+    <t>Branden Carrillo</t>
+  </si>
+  <si>
+    <t>Kiona Santana</t>
+  </si>
+  <si>
+    <t>Bert Arnold</t>
+  </si>
+  <si>
+    <t>Jakeem Mcmillan</t>
+  </si>
+  <si>
+    <t>Laura Bonner</t>
+  </si>
+  <si>
+    <t>Barbara Mercado</t>
+  </si>
+  <si>
+    <t>Davis Benton</t>
+  </si>
+  <si>
+    <t>Rhona Holder</t>
+  </si>
+  <si>
+    <t>Yoko Rosales</t>
+  </si>
+  <si>
+    <t>Raya Cantrell</t>
+  </si>
+  <si>
+    <t>Elvis Moore</t>
+  </si>
+  <si>
+    <t>Camilla Mitchell</t>
+  </si>
+  <si>
+    <t>Dacey Rios</t>
+  </si>
+  <si>
+    <t>Wylie Bryan</t>
+  </si>
+  <si>
+    <t>Wallace Burton</t>
+  </si>
+  <si>
+    <t>Sigourney Stafford</t>
+  </si>
+  <si>
+    <t>Dennis Hopkins</t>
+  </si>
+  <si>
+    <t>Chiquita Castillo</t>
+  </si>
+  <si>
+    <t>Clark Becker</t>
+  </si>
+  <si>
+    <t>Xenos Klein</t>
+  </si>
+  <si>
+    <t>Ahmed Stafford</t>
+  </si>
+  <si>
+    <t>Hector Lancaster</t>
+  </si>
+  <si>
+    <t>Calvin Armstrong</t>
+  </si>
+  <si>
+    <t>Cade Fisher</t>
+  </si>
+  <si>
+    <t>Demetrius Hines</t>
+  </si>
+  <si>
+    <t>Charles Frost</t>
+  </si>
+  <si>
+    <t>Levi Bright</t>
+  </si>
+  <si>
+    <t>Sebastian Henson</t>
+  </si>
+  <si>
+    <t>Nash Townsend</t>
+  </si>
+  <si>
+    <t>Madonna Ward</t>
+  </si>
+  <si>
+    <t>Lucius Guthrie</t>
+  </si>
+  <si>
+    <t>Francis Watts</t>
+  </si>
+  <si>
+    <t>Armando Sosa</t>
+  </si>
+  <si>
+    <t>Emmanuel Byers</t>
+  </si>
+  <si>
+    <t>Bell Whitfield</t>
+  </si>
+  <si>
+    <t>Malachi Jefferson</t>
+  </si>
+  <si>
+    <t>Dylan Knox</t>
+  </si>
+  <si>
+    <t>Joseph Roman</t>
+  </si>
+  <si>
+    <t>Gage Clayton</t>
+  </si>
+  <si>
+    <t>Rylee Ortega</t>
+  </si>
+  <si>
+    <t>Jonas Dennis</t>
+  </si>
+  <si>
+    <t>Joshua Graham</t>
+  </si>
+  <si>
+    <t>Caesar Nunez</t>
+  </si>
+  <si>
+    <t>Blossom Cooper</t>
+  </si>
+  <si>
+    <t>Abbot Thomas</t>
+  </si>
+  <si>
+    <t>Eaton Sparks</t>
+  </si>
+  <si>
+    <t>Aretha Kane</t>
+  </si>
+  <si>
+    <t>Brennan Shannon</t>
+  </si>
+  <si>
+    <t>Tanek Boyd</t>
+  </si>
+  <si>
+    <t>Portia Hodge</t>
+  </si>
+  <si>
+    <t>Brendan Lowery</t>
+  </si>
+  <si>
+    <t>Norman Mckay</t>
+  </si>
+  <si>
+    <t>Brett Coleman</t>
+  </si>
+  <si>
+    <t>Buffy Hurst</t>
+  </si>
+  <si>
+    <t>Wyoming Brooks</t>
+  </si>
+  <si>
+    <t>Herrod Beard</t>
+  </si>
+  <si>
+    <t>Emerson Slater</t>
+  </si>
+  <si>
+    <t>Blake O'donnell</t>
+  </si>
+  <si>
+    <t>Uriah Lancaster</t>
+  </si>
+  <si>
+    <t>Maya Conley</t>
+  </si>
+  <si>
+    <t>Magee Booker</t>
+  </si>
+  <si>
+    <t>Kamal Avery</t>
+  </si>
+  <si>
+    <t>Shaeleigh Cohen</t>
+  </si>
+  <si>
+    <t>Lucas Jackson</t>
+  </si>
+  <si>
+    <t>Jakeem Fitzgerald</t>
+  </si>
+  <si>
+    <t>Dylan Shannon</t>
+  </si>
+  <si>
+    <t>Vanna Wells</t>
+  </si>
+  <si>
+    <t>Octavius Barlow</t>
+  </si>
+  <si>
+    <t>Raya Pruitt</t>
+  </si>
+  <si>
+    <t>Audra Walton</t>
+  </si>
+  <si>
+    <t>Ryan Ferguson</t>
+  </si>
+  <si>
+    <t>Guy Mcmahon</t>
+  </si>
+  <si>
+    <t>Sierra Schwartz</t>
+  </si>
+  <si>
+    <t>Magee Sweeney</t>
+  </si>
+  <si>
+    <t>Hillary Velasquez</t>
+  </si>
+  <si>
+    <t>Kirsten Holman</t>
+  </si>
+  <si>
+    <t>08 88 32 71 78</t>
+  </si>
+  <si>
+    <t>06 07 05 11 83</t>
+  </si>
+  <si>
+    <t>09 72 58 01 26</t>
+  </si>
+  <si>
+    <t>09 79 06 56 51</t>
+  </si>
+  <si>
+    <t>03 76 67 71 54</t>
+  </si>
+  <si>
+    <t>06 05 21 87 54</t>
+  </si>
+  <si>
+    <t>01 61 38 69 95</t>
+  </si>
+  <si>
+    <t>05 72 13 47 54</t>
+  </si>
+  <si>
+    <t>01 49 17 84 68</t>
+  </si>
+  <si>
+    <t>05 35 74 90 86</t>
+  </si>
+  <si>
+    <t>07 45 64 43 28</t>
+  </si>
+  <si>
+    <t>09 15 42 36 74</t>
+  </si>
+  <si>
+    <t>08 20 56 88 28</t>
+  </si>
+  <si>
+    <t>06 45 88 02 62</t>
+  </si>
+  <si>
+    <t>03 24 48 21 52</t>
+  </si>
+  <si>
+    <t>02 62 53 44 56</t>
+  </si>
+  <si>
+    <t>02 33 59 30 47</t>
+  </si>
+  <si>
+    <t>08 86 82 04 56</t>
+  </si>
+  <si>
+    <t>08 19 40 67 76</t>
+  </si>
+  <si>
+    <t>03 13 27 11 90</t>
+  </si>
+  <si>
+    <t>05 32 62 71 34</t>
+  </si>
+  <si>
+    <t>07 47 32 25 42</t>
+  </si>
+  <si>
+    <t>04 88 63 66 85</t>
+  </si>
+  <si>
+    <t>04 20 85 06 36</t>
+  </si>
+  <si>
+    <t>04 16 91 41 32</t>
+  </si>
+  <si>
+    <t>02 28 67 28 57</t>
+  </si>
+  <si>
+    <t>02 21 68 81 23</t>
+  </si>
+  <si>
+    <t>08 41 28 69 56</t>
+  </si>
+  <si>
+    <t>04 17 63 47 74</t>
+  </si>
+  <si>
+    <t>03 88 81 25 50</t>
+  </si>
+  <si>
+    <t>03 84 56 51 70</t>
+  </si>
+  <si>
+    <t>08 06 88 56 24</t>
+  </si>
+  <si>
+    <t>06 69 38 30 10</t>
+  </si>
+  <si>
+    <t>01 45 52 39 26</t>
+  </si>
+  <si>
+    <t>02 47 53 37 84</t>
+  </si>
+  <si>
+    <t>07 08 15 39 17</t>
+  </si>
+  <si>
+    <t>03 72 39 66 70</t>
+  </si>
+  <si>
+    <t>06 27 54 28 10</t>
+  </si>
+  <si>
+    <t>03 14 26 52 17</t>
+  </si>
+  <si>
+    <t>03 05 32 42 68</t>
+  </si>
+  <si>
+    <t>09 75 52 09 14</t>
+  </si>
+  <si>
+    <t>06 65 25 22 72</t>
+  </si>
+  <si>
+    <t>05 12 33 70 28</t>
+  </si>
+  <si>
+    <t>09 28 35 31 78</t>
+  </si>
+  <si>
+    <t>05 15 37 03 85</t>
+  </si>
+  <si>
+    <t>07 66 34 12 25</t>
+  </si>
+  <si>
+    <t>04 61 32 98 71</t>
+  </si>
+  <si>
+    <t>01 55 91 10 43</t>
+  </si>
+  <si>
+    <t>04 35 66 54 46</t>
+  </si>
+  <si>
+    <t>08 51 35 95 89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +525,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,284 +902,1284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC39CDD1-A4AC-4028-BE88-0775C18F0A6D}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>17000041</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>17000201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
       </c>
       <c r="D2" s="3">
-        <v>36161</v>
+        <v>36606</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>676546387</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN1.G3EI3_LN1@etu.uae.ac.ma</v>
+        <f>CONCATENATE(SUBSTITUTE(B2," ",""),".",SUBSTITUTE(C2," ",""),"@etu.uae.ac.ma")</f>
+        <v>KirstenHolman.HillaryVelasquez@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>17000042</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>17000202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
       </c>
       <c r="D3" s="3">
-        <v>36437</v>
+        <v>35519</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>683096139</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN2.G3EI3_LN2@etu.uae.ac.ma</v>
+        <f t="shared" ref="G3:G51" si="0">CONCATENATE(SUBSTITUTE(B3," ",""),".",SUBSTITUTE(C3," ",""),"@etu.uae.ac.ma")</f>
+        <v>MageeSweeney.SierraSchwartz@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>17000043</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
+        <f t="shared" ref="A4:A51" si="1">A3+1</f>
+        <v>17000203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
       </c>
       <c r="D4" s="3">
-        <v>36497</v>
+        <v>37118</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>711433500</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN3.G3EI3_LN3@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>GuyMcmahon.RyanFerguson@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>17000044</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>17000204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
       </c>
       <c r="D5" s="3">
-        <v>36506</v>
+        <v>37560</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>778099773</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN4.G3EI3_LN4@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>AudraWalton.RayaPruitt@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>17000045</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>17000205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3">
+        <v>37509</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>678234006</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN5.G3EI3_LN5@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>OctaviusBarlow.VannaWells@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>17000046</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>17000206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3">
+        <v>35686</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
-        <v>621986365</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN6.G3EI3_LN6@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>DylanShannon.JakeemFitzgerald@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>17000047</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>17000207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3">
+        <v>37323</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
-        <v>609182000</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN7.G3EI3_LN7@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>LucasJackson.ShaeleighCohen@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>17000048</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>17000208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="3">
+        <v>37582</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>733712112</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN8.G3EI3_LN8@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>KamalAvery.MageeBooker@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>17000049</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>17000209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="3">
+        <v>36197</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>649919812</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN9.G3EI3_LN9@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>MayaConley.UriahLancaster@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>17000050</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <f t="shared" si="1"/>
+        <v>17000210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="3">
+        <v>37101</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BlakeO'donnell.EmersonSlater@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>17000211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3">
+        <v>35651</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HerrodBeard.WyomingBrooks@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>17000212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3">
+        <v>36952</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BuffyHurst.BrettColeman@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>17000213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3">
+        <v>35474</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NormanMckay.BrendanLowery@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>17000214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3">
+        <v>35869</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PortiaHodge.TanekBoyd@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>17000215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3">
+        <v>37111</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BrennanShannon.ArethaKane@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>17000216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36029</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EatonSparks.AbbotThomas@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>17000217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36106</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BlossomCooper.CaesarNunez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>17000218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3">
+        <v>35827</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JoshuaGraham.JonasDennis@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>17000219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3">
+        <v>37274</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RyleeOrtega.GageClayton@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>17000220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3">
+        <v>36682</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JosephRoman.DylanKnox@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>17000221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3">
+        <v>36395</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MalachiJefferson.BellWhitfield@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>17000222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3">
+        <v>36865</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EmmanuelByers.ArmandoSosa@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>17000223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3">
+        <v>36782</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FrancisWatts.LuciusGuthrie@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>17000224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3">
+        <v>36269</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MadonnaWard.NashTownsend@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>17000225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3">
+        <v>36516</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SebastianHenson.LeviBright@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>17000226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3">
+        <v>36514</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CharlesFrost.DemetriusHines@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>17000227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3">
+        <v>37061</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CadeFisher.CalvinArmstrong@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>17000228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3">
+        <v>36436</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HectorLancaster.AhmedStafford@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>17000229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3">
+        <v>35468</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>XenosKlein.ClarkBecker@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>17000230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="3">
+        <v>36103</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ChiquitaCastillo.DennisHopkins@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>17000231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="3">
+        <v>37554</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SigourneyStafford.WallaceBurton@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>17000232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3">
+        <v>36630</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>WylieBryan.DaceyRios@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>17000233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3">
+        <v>36035</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CamillaMitchell.ElvisMoore@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>17000234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="3">
+        <v>36034</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RayaCantrell.YokoRosales@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>17000235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="3">
+        <v>36293</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RhonaHolder.DavisBenton@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>17000236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>36161</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BarbaraMercado.LauraBonner@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>17000237</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JakeemMcmillan.BertArnold@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>17000238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="3">
+        <v>36819</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KionaSantana.BrandenCarrillo@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>17000239</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3">
+        <v>36478</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PaulAustin.ColinWilkinson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>17000240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="3">
+        <v>35471</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LeandraJarvis.BarclayThompson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>17000241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="3">
+        <v>36545</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CallyWheeler.StevenBush@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>17000242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3">
+        <v>36964</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FleurPowers.ReganNorman@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>17000243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="3">
+        <v>35643</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ZoeSanford.IndiraBranch@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>17000244</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="3">
+        <v>35936</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MarshallPetersen.SylvesterVaughn@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>17000245</v>
+      </c>
+      <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3">
+        <v>36987</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AdaraHoffman.JeanetteBauer@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>17000246</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3">
+        <v>36875</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MohammadAllen.CamillaMedina@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>17000247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3">
+        <v>36870</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JasonDay.NadineMoreno@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>17000248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3">
+        <v>36945</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JamalTrujillo.LeoJenkins@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>17000249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>35967</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ArsenioStein.ZephSanford@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>17000250</v>
+      </c>
+      <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
-        <v>641131434</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
-        <v>G3EI3_FN10.G3EI3_LN10@etu.uae.ac.ma</v>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3">
+        <v>36765</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SydneeVaughan.ZephaniaSampson@etu.uae.ac.ma</v>
       </c>
     </row>
   </sheetData>
